--- a/public/wildberries/IMPORT_TNVED_6302_4_04.xlsx
+++ b/public/wildberries/IMPORT_TNVED_6302_4_04.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="IMPORT_TNVED_6302" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="Справочники" state="visible" r:id="rId5"/>
+    <sheet name="IMPORT_TNVED_6302" sheetId="1" r:id="rId1"/>
+    <sheet name="Справочники" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="240">
   <si>
     <t>Код ТНВЭД</t>
   </si>
@@ -122,7 +123,7 @@
     <t>6302</t>
   </si>
   <si>
-    <t>Простыня из страйп сатина 300 х 300 - М - 140 - Белый Люкс 1х1</t>
+    <t>Пододеяльник из тенселя 200 х 220 - М - 60S 54-020 Розовая лаванда</t>
   </si>
   <si>
     <t>Ивановский текстиль</t>
@@ -131,153 +132,168 @@
     <t>Артикул</t>
   </si>
   <si>
-    <t>00-00197778</t>
+    <t>00-00202522</t>
+  </si>
+  <si>
+    <t>ПОДОДЕЯЛЬНИК С КЛАПАНОМ</t>
+  </si>
+  <si>
+    <t>ВЗРОСЛЫЙ</t>
+  </si>
+  <si>
+    <t>ТЕНСЕЛЬ</t>
+  </si>
+  <si>
+    <t>100% Эвкалипт</t>
+  </si>
+  <si>
+    <t>200х220</t>
+  </si>
+  <si>
+    <t>6302100001</t>
+  </si>
+  <si>
+    <t>ТР ТС 017/2011 "О безопасности продукции легкой промышленности</t>
+  </si>
+  <si>
+    <t>На модерации</t>
+  </si>
+  <si>
+    <t>Постельное бельё из страйп-сатина Евро макси - М - 125 - Дымка 1х1</t>
+  </si>
+  <si>
+    <t>00-00198922</t>
+  </si>
+  <si>
+    <t>КОМПЛЕКТ</t>
+  </si>
+  <si>
+    <t>СТРАЙП-САТИН</t>
+  </si>
+  <si>
+    <t>100% Хлопок</t>
+  </si>
+  <si>
+    <t>Евро Макси</t>
+  </si>
+  <si>
+    <t>6302 Белье постельное, столовое, туалетное и кухонное</t>
+  </si>
+  <si>
+    <t>Наименование атрибута</t>
+  </si>
+  <si>
+    <t>Значение атрибута</t>
+  </si>
+  <si>
+    <t>Модель / артикул производителя(тип)</t>
+  </si>
+  <si>
+    <t>Модель</t>
+  </si>
+  <si>
+    <t>Модель / Артикул</t>
+  </si>
+  <si>
+    <t>САЛФЕТКИ ДЛЯ СТЕКЛЯННОЙ ПОСУДЫ</t>
+  </si>
+  <si>
+    <t>ПОДОДЕЯЛЬНИК С ВЫРЕЗОМ</t>
+  </si>
+  <si>
+    <t>ПОДЗОР</t>
   </si>
   <si>
     <t>ПРОСТЫНЯ</t>
   </si>
   <si>
+    <t>ПРОСТЫНЯ НА РЕЗИНКЕ</t>
+  </si>
+  <si>
+    <t>НАМАТРАСНИК</t>
+  </si>
+  <si>
+    <t>ПОКРЫВАЛО</t>
+  </si>
+  <si>
+    <t>НАВОЛОЧКА КВАДРАТНАЯ</t>
+  </si>
+  <si>
+    <t>НАВОЛОЧКА ПРЯМОУГОЛЬНАЯ</t>
+  </si>
+  <si>
+    <t>НАВОЛОЧКА ЦИЛИНДРИЧЕСКАЯ</t>
+  </si>
+  <si>
+    <t>ГОСТЕВОЕ ПОЛОТЕНЦЕ ДЛЯ РУК</t>
+  </si>
+  <si>
+    <t>ПОЛОТЕНЦЕ БАННОЕ/КУПАЛЬНОЕ ПОЛОТЕНЦЕ</t>
+  </si>
+  <si>
+    <t>ПОЛОТЕНЦЕ ДЛЯ ПУТЕШЕСТВИЙ</t>
+  </si>
+  <si>
+    <t>ПОЛОТЕНЦЕ ДЛЯ РУК</t>
+  </si>
+  <si>
+    <t>ПОЛОТЕНЦЕ КУХОННОЕ ДЛЯ СУШКИ</t>
+  </si>
+  <si>
+    <t>ТРЯПКА ДЛЯ МЫТЬЯ ПОСУДЫ</t>
+  </si>
+  <si>
+    <t>ПОЛОТЕНЦА ПЛЯЖНЫЕ</t>
+  </si>
+  <si>
+    <t>КОВРИК</t>
+  </si>
+  <si>
+    <t>ИЗДЕЛИЯ ДЛЯ САУНЫ</t>
+  </si>
+  <si>
+    <t>ПОЛОТЕНЦЕ ДЛЯ ЧАЙНОЙ ПОСУДЫ</t>
+  </si>
+  <si>
+    <t>АЖУРНАЯ САЛФЕТКА/САЛФЕТКА ПОД ПРИБОРЫ</t>
+  </si>
+  <si>
+    <t>ДОРОЖКА</t>
+  </si>
+  <si>
+    <t>КОМПЛЕКТ СТОЛОВОГО БЕЛЬЯ</t>
+  </si>
+  <si>
+    <t>ПОКРЫТИЕ ДЛЯ ПОДУШЕК</t>
+  </si>
+  <si>
+    <t>ПОКРЫТИЕ ДЛЯ СТУЛА</t>
+  </si>
+  <si>
+    <t>ПОКРЫТИЯ ДЛЯ ДИВАНОВ</t>
+  </si>
+  <si>
+    <t>САЛФЕТКА ПОД ПРИБОРЫ (МНОГОРАЗОВАЯ)</t>
+  </si>
+  <si>
+    <t>САЛФЕТКИ (МНОГОРАЗОВЫЕ)</t>
+  </si>
+  <si>
+    <t>СКАТЕРТЬ (МНОГОРАЗОВАЯ)</t>
+  </si>
+  <si>
+    <t>БЕЖЕВЫЙ</t>
+  </si>
+  <si>
+    <t>БЕЖЕВЫЙ МЕЛАНЖ</t>
+  </si>
+  <si>
+    <t>БЕЛО-РОЗОВЫЙ</t>
+  </si>
+  <si>
     <t>БЕЛЫЙ</t>
   </si>
   <si>
-    <t>ВЗРОСЛЫЙ</t>
-  </si>
-  <si>
-    <t>СТРАЙП-САТИН</t>
-  </si>
-  <si>
-    <t>100% Хлопок</t>
-  </si>
-  <si>
-    <t>300х300</t>
-  </si>
-  <si>
-    <t>6302100001</t>
-  </si>
-  <si>
-    <t>ТР ТС 017/2011 "О безопасности продукции легкой промышленности</t>
-  </si>
-  <si>
-    <t>На модерации</t>
-  </si>
-  <si>
-    <t>6302 Белье постельное, столовое, туалетное и кухонное</t>
-  </si>
-  <si>
-    <t>Наименование атрибута</t>
-  </si>
-  <si>
-    <t>Значение атрибута</t>
-  </si>
-  <si>
-    <t>Модель / артикул производителя(тип)</t>
-  </si>
-  <si>
-    <t>Модель</t>
-  </si>
-  <si>
-    <t>Модель / Артикул</t>
-  </si>
-  <si>
-    <t>САЛФЕТКИ ДЛЯ СТЕКЛЯННОЙ ПОСУДЫ</t>
-  </si>
-  <si>
-    <t>ПОДОДЕЯЛЬНИК С ВЫРЕЗОМ</t>
-  </si>
-  <si>
-    <t>ПОДОДЕЯЛЬНИК С КЛАПАНОМ</t>
-  </si>
-  <si>
-    <t>ПОДЗОР</t>
-  </si>
-  <si>
-    <t>ПРОСТЫНЯ НА РЕЗИНКЕ</t>
-  </si>
-  <si>
-    <t>НАМАТРАСНИК</t>
-  </si>
-  <si>
-    <t>ПОКРЫВАЛО</t>
-  </si>
-  <si>
-    <t>НАВОЛОЧКА КВАДРАТНАЯ</t>
-  </si>
-  <si>
-    <t>НАВОЛОЧКА ПРЯМОУГОЛЬНАЯ</t>
-  </si>
-  <si>
-    <t>НАВОЛОЧКА ЦИЛИНДРИЧЕСКАЯ</t>
-  </si>
-  <si>
-    <t>КОМПЛЕКТ</t>
-  </si>
-  <si>
-    <t>ГОСТЕВОЕ ПОЛОТЕНЦЕ ДЛЯ РУК</t>
-  </si>
-  <si>
-    <t>ПОЛОТЕНЦЕ БАННОЕ/КУПАЛЬНОЕ ПОЛОТЕНЦЕ</t>
-  </si>
-  <si>
-    <t>ПОЛОТЕНЦЕ ДЛЯ ПУТЕШЕСТВИЙ</t>
-  </si>
-  <si>
-    <t>ПОЛОТЕНЦЕ ДЛЯ РУК</t>
-  </si>
-  <si>
-    <t>ПОЛОТЕНЦЕ КУХОННОЕ ДЛЯ СУШКИ</t>
-  </si>
-  <si>
-    <t>ТРЯПКА ДЛЯ МЫТЬЯ ПОСУДЫ</t>
-  </si>
-  <si>
-    <t>ПОЛОТЕНЦА ПЛЯЖНЫЕ</t>
-  </si>
-  <si>
-    <t>КОВРИК</t>
-  </si>
-  <si>
-    <t>ИЗДЕЛИЯ ДЛЯ САУНЫ</t>
-  </si>
-  <si>
-    <t>ПОЛОТЕНЦЕ ДЛЯ ЧАЙНОЙ ПОСУДЫ</t>
-  </si>
-  <si>
-    <t>АЖУРНАЯ САЛФЕТКА/САЛФЕТКА ПОД ПРИБОРЫ</t>
-  </si>
-  <si>
-    <t>ДОРОЖКА</t>
-  </si>
-  <si>
-    <t>КОМПЛЕКТ СТОЛОВОГО БЕЛЬЯ</t>
-  </si>
-  <si>
-    <t>ПОКРЫТИЕ ДЛЯ ПОДУШЕК</t>
-  </si>
-  <si>
-    <t>ПОКРЫТИЕ ДЛЯ СТУЛА</t>
-  </si>
-  <si>
-    <t>ПОКРЫТИЯ ДЛЯ ДИВАНОВ</t>
-  </si>
-  <si>
-    <t>САЛФЕТКА ПОД ПРИБОРЫ (МНОГОРАЗОВАЯ)</t>
-  </si>
-  <si>
-    <t>САЛФЕТКИ (МНОГОРАЗОВЫЕ)</t>
-  </si>
-  <si>
-    <t>СКАТЕРТЬ (МНОГОРАЗОВАЯ)</t>
-  </si>
-  <si>
-    <t>БЕЖЕВЫЙ</t>
-  </si>
-  <si>
-    <t>БЕЖЕВЫЙ МЕЛАНЖ</t>
-  </si>
-  <si>
-    <t>БЕЛО-РОЗОВЫЙ</t>
-  </si>
-  <si>
     <t>БЕЛЫЙ/СЕРЫЙ</t>
   </si>
   <si>
@@ -717,6 +733,9 @@
   </si>
   <si>
     <t>Действие технических регламентов не распространяется</t>
+  </si>
+  <si>
+    <t>СИРЕНЕВЫЙ</t>
   </si>
 </sst>
 </file>
@@ -725,24 +744,24 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <charset val="1"/>
-      <family val="2"/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <charset val="1"/>
-      <family val="2"/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -770,7 +789,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="E3E3E3"/>
+        <fgColor rgb="FFE3E3E3"/>
       </patternFill>
     </fill>
     <fill>
@@ -795,17 +814,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -814,7 +841,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -826,32 +853,15 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1129,26 +1139,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="73" zoomScaleNormal="100">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="77.85546875" customWidth="1"/>
-    <col min="3" max="3" width="48" customWidth="1"/>
-    <col min="4" max="5" width="35" customWidth="1"/>
-    <col min="6" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="24" customWidth="1"/>
-    <col min="9" max="12" width="23" customWidth="1"/>
-    <col min="13" max="13" width="31" customWidth="1"/>
-    <col min="14" max="14" width="47" customWidth="1"/>
-    <col min="15" max="15" width="53" customWidth="1"/>
-    <col min="16" max="1024" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="63.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1287,7 +1293,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>29</v>
@@ -1332,7 +1338,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -1352,37 +1358,75 @@
         <v>39</v>
       </c>
       <c r="G5" t="s">
+        <v>239</v>
+      </c>
+      <c r="H5" t="s">
         <v>40</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>41</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>42</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="L5" t="s">
         <v>44</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="N5" t="s">
         <v>46</v>
       </c>
-      <c r="N5" t="s">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="M6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1398,7 +1442,7 @@
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1414,7 +1458,7 @@
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1430,7 +1474,7 @@
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1444,7 +1488,7 @@
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1458,7 +1502,7 @@
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -1473,17 +1517,7 @@
       <c r="N12" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D1:E1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="B5:B12"/>
-  <conditionalFormatting sqref="B5:B12"/>
-  <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" scale="0" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1491,11 +1525,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B207"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B203" sqref="B203"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="50" customWidth="1"/>
@@ -1503,17 +1537,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="6"/>
+      <c r="A1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="9"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1526,15 +1560,15 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>37</v>
@@ -1542,10 +1576,10 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1561,7 +1595,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1569,7 +1603,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1577,7 +1611,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1585,7 +1619,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1593,7 +1627,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1601,7 +1635,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1609,7 +1643,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1617,7 +1651,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1625,7 +1659,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1633,7 +1667,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1641,7 +1675,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1649,7 +1683,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1657,7 +1691,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1665,7 +1699,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1673,7 +1707,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1681,7 +1715,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1689,7 +1723,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1697,7 +1731,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1705,7 +1739,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1713,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1721,7 +1755,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1729,7 +1763,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1737,7 +1771,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1745,7 +1779,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1753,7 +1787,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1761,7 +1795,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1769,7 +1803,7 @@
         <v>4</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1777,7 +1811,7 @@
         <v>4</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1785,7 +1819,7 @@
         <v>4</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1793,7 +1827,7 @@
         <v>4</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1801,7 +1835,7 @@
         <v>4</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1817,7 +1851,7 @@
         <v>5</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1825,7 +1859,7 @@
         <v>5</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1833,7 +1867,7 @@
         <v>5</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1841,7 +1875,7 @@
         <v>5</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1849,7 +1883,7 @@
         <v>5</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1857,7 +1891,7 @@
         <v>5</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1865,7 +1899,7 @@
         <v>5</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1873,7 +1907,7 @@
         <v>5</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1881,7 +1915,7 @@
         <v>5</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1889,7 +1923,7 @@
         <v>5</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1897,7 +1931,7 @@
         <v>5</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1905,7 +1939,7 @@
         <v>5</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1913,7 +1947,7 @@
         <v>5</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1921,7 +1955,7 @@
         <v>5</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1929,7 +1963,7 @@
         <v>5</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1937,7 +1971,7 @@
         <v>5</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1945,7 +1979,7 @@
         <v>5</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1953,7 +1987,7 @@
         <v>5</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1961,7 +1995,7 @@
         <v>5</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1969,7 +2003,7 @@
         <v>5</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1977,7 +2011,7 @@
         <v>5</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1985,7 +2019,7 @@
         <v>5</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1993,7 +2027,7 @@
         <v>5</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -2001,7 +2035,7 @@
         <v>5</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -2009,7 +2043,7 @@
         <v>5</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -2017,7 +2051,7 @@
         <v>5</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -2025,7 +2059,7 @@
         <v>5</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -2033,7 +2067,7 @@
         <v>5</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -2041,7 +2075,7 @@
         <v>5</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -2049,7 +2083,7 @@
         <v>5</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -2057,7 +2091,7 @@
         <v>5</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -2065,7 +2099,7 @@
         <v>5</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -2073,7 +2107,7 @@
         <v>5</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -2081,7 +2115,7 @@
         <v>5</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -2089,7 +2123,7 @@
         <v>5</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -2097,7 +2131,7 @@
         <v>5</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -2105,7 +2139,7 @@
         <v>5</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -2113,7 +2147,7 @@
         <v>5</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -2121,7 +2155,7 @@
         <v>5</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -2129,7 +2163,7 @@
         <v>5</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -2137,7 +2171,7 @@
         <v>5</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -2145,7 +2179,7 @@
         <v>5</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -2153,7 +2187,7 @@
         <v>5</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -2161,7 +2195,7 @@
         <v>5</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -2169,7 +2203,7 @@
         <v>5</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -2177,7 +2211,7 @@
         <v>5</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -2185,7 +2219,7 @@
         <v>5</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -2193,7 +2227,7 @@
         <v>5</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -2201,7 +2235,7 @@
         <v>5</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -2209,7 +2243,7 @@
         <v>5</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -2217,7 +2251,7 @@
         <v>5</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -2225,7 +2259,7 @@
         <v>5</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -2233,7 +2267,7 @@
         <v>5</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -2241,7 +2275,7 @@
         <v>5</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -2249,7 +2283,7 @@
         <v>5</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -2257,7 +2291,7 @@
         <v>5</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -2265,7 +2299,7 @@
         <v>5</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -2273,7 +2307,7 @@
         <v>5</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -2281,7 +2315,7 @@
         <v>5</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -2289,7 +2323,7 @@
         <v>5</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -2297,7 +2331,7 @@
         <v>5</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -2305,7 +2339,7 @@
         <v>5</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -2313,7 +2347,7 @@
         <v>5</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -2321,7 +2355,7 @@
         <v>5</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -2329,7 +2363,7 @@
         <v>5</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -2337,7 +2371,7 @@
         <v>5</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -2345,7 +2379,7 @@
         <v>5</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -2353,7 +2387,7 @@
         <v>5</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -2361,7 +2395,7 @@
         <v>5</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -2369,7 +2403,7 @@
         <v>5</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -2377,7 +2411,7 @@
         <v>5</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -2385,7 +2419,7 @@
         <v>5</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -2393,7 +2427,7 @@
         <v>5</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -2401,7 +2435,7 @@
         <v>5</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -2409,7 +2443,7 @@
         <v>5</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -2425,7 +2459,7 @@
         <v>6</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -2433,7 +2467,7 @@
         <v>6</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -2441,7 +2475,7 @@
         <v>6</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -2449,7 +2483,7 @@
         <v>6</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -2465,7 +2499,7 @@
         <v>7</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -2473,7 +2507,7 @@
         <v>7</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -2481,7 +2515,7 @@
         <v>7</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -2489,7 +2523,7 @@
         <v>7</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -2497,7 +2531,7 @@
         <v>7</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -2505,7 +2539,7 @@
         <v>7</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -2513,7 +2547,7 @@
         <v>7</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -2521,7 +2555,7 @@
         <v>7</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -2529,7 +2563,7 @@
         <v>7</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -2537,7 +2571,7 @@
         <v>7</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -2545,7 +2579,7 @@
         <v>7</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -2553,7 +2587,7 @@
         <v>7</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -2561,7 +2595,7 @@
         <v>7</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -2569,7 +2603,7 @@
         <v>7</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -2577,7 +2611,7 @@
         <v>7</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -2585,7 +2619,7 @@
         <v>7</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -2593,7 +2627,7 @@
         <v>7</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -2601,7 +2635,7 @@
         <v>7</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -2609,7 +2643,7 @@
         <v>7</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -2617,7 +2651,7 @@
         <v>7</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -2625,7 +2659,7 @@
         <v>7</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -2633,7 +2667,7 @@
         <v>7</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -2641,7 +2675,7 @@
         <v>7</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -2649,7 +2683,7 @@
         <v>7</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -2657,7 +2691,7 @@
         <v>7</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -2665,7 +2699,7 @@
         <v>7</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -2673,7 +2707,7 @@
         <v>7</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -2681,7 +2715,7 @@
         <v>7</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -2689,7 +2723,7 @@
         <v>7</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -2697,7 +2731,7 @@
         <v>7</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -2705,7 +2739,7 @@
         <v>7</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -2713,7 +2747,7 @@
         <v>7</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -2721,7 +2755,7 @@
         <v>7</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -2729,7 +2763,7 @@
         <v>7</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -2737,7 +2771,7 @@
         <v>7</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -2745,7 +2779,7 @@
         <v>7</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -2753,7 +2787,7 @@
         <v>7</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -2761,7 +2795,7 @@
         <v>7</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -2769,7 +2803,7 @@
         <v>7</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -2777,7 +2811,7 @@
         <v>7</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -2785,7 +2819,7 @@
         <v>7</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -2793,7 +2827,7 @@
         <v>7</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -2801,7 +2835,7 @@
         <v>7</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -2809,7 +2843,7 @@
         <v>7</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -2817,7 +2851,7 @@
         <v>7</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -2825,7 +2859,7 @@
         <v>7</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -2833,7 +2867,7 @@
         <v>7</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -2841,7 +2875,7 @@
         <v>7</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -2849,7 +2883,7 @@
         <v>7</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -2857,7 +2891,7 @@
         <v>7</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -2865,7 +2899,7 @@
         <v>7</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -2873,7 +2907,7 @@
         <v>7</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -2881,7 +2915,7 @@
         <v>7</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -2889,7 +2923,7 @@
         <v>7</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -2897,7 +2931,7 @@
         <v>7</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -2905,7 +2939,7 @@
         <v>7</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -2913,7 +2947,7 @@
         <v>7</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -2921,7 +2955,7 @@
         <v>7</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -2929,7 +2963,7 @@
         <v>7</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -2937,7 +2971,7 @@
         <v>7</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -2945,7 +2979,7 @@
         <v>7</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -2953,7 +2987,7 @@
         <v>7</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -2961,7 +2995,7 @@
         <v>7</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -2969,7 +3003,7 @@
         <v>7</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -2977,7 +3011,7 @@
         <v>7</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -2985,7 +3019,7 @@
         <v>7</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -2993,7 +3027,7 @@
         <v>7</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -3001,7 +3035,7 @@
         <v>7</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -3009,7 +3043,7 @@
         <v>7</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -3017,7 +3051,7 @@
         <v>7</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -3045,7 +3079,7 @@
         <v>10</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -3053,7 +3087,7 @@
         <v>10</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -3061,7 +3095,7 @@
         <v>10</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -3069,7 +3103,7 @@
         <v>10</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -3085,7 +3119,7 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" scale="0" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="0"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
